--- a/tests/expected_results/result_test_write_results_iuvo.xlsx
+++ b/tests/expected_results/result_test_write_results_iuvo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t xml:space="preserve">Plattform</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
   </si>
 </sst>
 </file>
@@ -4069,7 +4066,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4156,11 +4153,11 @@
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
+      <c r="C3" s="2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.04</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>-1000</v>
